--- a/toomany.xlsx
+++ b/toomany.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="16275" windowHeight="6225"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toomany!$A$1:$AJ$85</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -562,8 +562,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,7 +1173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1208,7 +1207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1384,15 +1382,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="11" max="14" width="0" hidden="1" customWidth="1"/>
@@ -1400,7 +1398,7 @@
     <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" hidden="1">
       <c r="A2">
         <v>437</v>
       </c>
@@ -1608,7 +1606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" hidden="1">
       <c r="A3">
         <v>440</v>
       </c>
@@ -1706,7 +1704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" hidden="1">
       <c r="A4">
         <v>436</v>
       </c>
@@ -1804,7 +1802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" hidden="1">
       <c r="A5">
         <v>439</v>
       </c>
@@ -1902,7 +1900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" hidden="1">
       <c r="A6">
         <v>360</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" hidden="1">
       <c r="A7">
         <v>363</v>
       </c>
@@ -2068,7 +2066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" hidden="1">
       <c r="A8">
         <v>354</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" hidden="1">
       <c r="A9">
         <v>357</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" hidden="1">
       <c r="A10">
         <v>366</v>
       </c>
@@ -2347,7 +2345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" hidden="1">
       <c r="A11">
         <v>369</v>
       </c>
@@ -2430,7 +2428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" hidden="1">
       <c r="A12">
         <v>372</v>
       </c>
@@ -2513,7 +2511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" hidden="1">
       <c r="A13">
         <v>375</v>
       </c>
@@ -2596,7 +2594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" hidden="1">
       <c r="A14">
         <v>378</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" hidden="1">
       <c r="A15">
         <v>381</v>
       </c>
@@ -2786,7 +2784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" hidden="1">
       <c r="A16">
         <v>384</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" hidden="1">
       <c r="A17">
         <v>387</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" hidden="1">
       <c r="A18">
         <v>353</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" hidden="1">
       <c r="A19">
         <v>356</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" hidden="1">
       <c r="A20">
         <v>359</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" hidden="1">
       <c r="A21">
         <v>362</v>
       </c>
@@ -3314,7 +3312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" hidden="1">
       <c r="A22">
         <v>365</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" hidden="1">
       <c r="A23">
         <v>368</v>
       </c>
@@ -3480,7 +3478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" hidden="1">
       <c r="A24">
         <v>371</v>
       </c>
@@ -3563,7 +3561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" hidden="1">
       <c r="A25">
         <v>374</v>
       </c>
@@ -3646,7 +3644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" hidden="1">
       <c r="A26">
         <v>377</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" hidden="1">
       <c r="A27">
         <v>380</v>
       </c>
@@ -3812,7 +3810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" hidden="1">
       <c r="A28">
         <v>383</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" hidden="1">
       <c r="A29">
         <v>386</v>
       </c>
@@ -3978,7 +3976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" hidden="1">
       <c r="A30">
         <v>140</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" hidden="1">
       <c r="A31">
         <v>141</v>
       </c>
@@ -4174,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" hidden="1">
       <c r="A32">
         <v>142</v>
       </c>
@@ -4272,7 +4270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" hidden="1">
       <c r="A33">
         <v>143</v>
       </c>
@@ -4370,7 +4368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>125</v>
       </c>
@@ -4468,60 +4466,57 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36">
       <c r="A35">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E35">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="F35">
-        <v>0.21490000000000001</v>
-      </c>
-      <c r="G35">
-        <v>0.21129999999999999</v>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>0.21830297500000001</v>
-      </c>
-      <c r="I35">
-        <v>0.21453171100000001</v>
+        <v>0.339465352</v>
       </c>
       <c r="J35">
-        <v>0.10721125300000001</v>
-      </c>
-      <c r="K35">
-        <v>0.10721125300000001</v>
-      </c>
-      <c r="L35">
-        <v>2.0010185859999998</v>
-      </c>
-      <c r="M35">
-        <v>88</v>
-      </c>
-      <c r="N35">
-        <v>4.8471829000000001E-2</v>
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
       </c>
       <c r="O35" t="s">
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="Q35" t="s">
         <v>42</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S35" t="s">
         <v>104</v>
@@ -4529,9 +4524,6 @@
       <c r="T35" t="s">
         <v>42</v>
       </c>
-      <c r="U35" t="s">
-        <v>42</v>
-      </c>
       <c r="V35" t="s">
         <v>99</v>
       </c>
@@ -4539,10 +4531,10 @@
         <v>45</v>
       </c>
       <c r="X35" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Y35" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Z35" t="s">
         <v>38</v>
@@ -4557,7 +4549,7 @@
         <v>38</v>
       </c>
       <c r="AD35">
-        <v>0.21490000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="AE35" t="s">
         <v>38</v>
@@ -4568,43 +4560,37 @@
       <c r="AG35" t="s">
         <v>39</v>
       </c>
-      <c r="AH35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI35">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>134</v>
+      <c r="AI35" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36">
       <c r="A36">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E36">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F36">
-        <v>0.38329999999999997</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
       </c>
       <c r="H36">
-        <v>0.403922273</v>
+        <v>0.14705085200000001</v>
       </c>
       <c r="J36">
-        <v>0.15617376199999999</v>
+        <v>0.123091491</v>
       </c>
       <c r="K36" t="s">
         <v>39</v>
@@ -4622,16 +4608,16 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="Q36" t="s">
         <v>42</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="T36" t="s">
         <v>42</v>
@@ -4643,10 +4629,10 @@
         <v>45</v>
       </c>
       <c r="X36" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Y36" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Z36" t="s">
         <v>38</v>
@@ -4661,7 +4647,7 @@
         <v>38</v>
       </c>
       <c r="AD36">
-        <v>0.38329999999999997</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="AE36" t="s">
         <v>38</v>
@@ -4676,12 +4662,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36">
       <c r="A37">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -4690,19 +4676,19 @@
         <v>38</v>
       </c>
       <c r="E37">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="F37">
-        <v>0.32700000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="H37">
-        <v>0.339465352</v>
+        <v>0.13684791499999999</v>
       </c>
       <c r="J37">
-        <v>8.5099999999999995E-2</v>
+        <v>0.120385853</v>
       </c>
       <c r="K37" t="s">
         <v>39</v>
@@ -4729,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="T37" t="s">
         <v>42</v>
@@ -4759,7 +4745,7 @@
         <v>38</v>
       </c>
       <c r="AD37">
-        <v>0.34</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="AE37" t="s">
         <v>38</v>
@@ -4774,33 +4760,33 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36">
       <c r="A38">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E38">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F38">
-        <v>0.14599999999999999</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
       </c>
       <c r="H38">
-        <v>0.14705085200000001</v>
+        <v>0.403922273</v>
       </c>
       <c r="J38">
-        <v>0.123091491</v>
+        <v>0.15617376199999999</v>
       </c>
       <c r="K38" t="s">
         <v>39</v>
@@ -4818,16 +4804,16 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="Q38" t="s">
         <v>42</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="T38" t="s">
         <v>42</v>
@@ -4839,10 +4825,10 @@
         <v>45</v>
       </c>
       <c r="X38" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="Y38" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="Z38" t="s">
         <v>38</v>
@@ -4857,7 +4843,7 @@
         <v>38</v>
       </c>
       <c r="AD38">
-        <v>0.14599999999999999</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="AE38" t="s">
         <v>38</v>
@@ -4872,62 +4858,68 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36">
       <c r="A39">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E39">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F39">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="G39" t="s">
-        <v>39</v>
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.21129999999999999</v>
       </c>
       <c r="H39">
-        <v>0.13684791499999999</v>
+        <v>0.21830297500000001</v>
+      </c>
+      <c r="I39">
+        <v>0.21453171100000001</v>
       </c>
       <c r="J39">
-        <v>0.120385853</v>
-      </c>
-      <c r="K39" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N39" t="s">
-        <v>39</v>
+        <v>0.10721125300000001</v>
+      </c>
+      <c r="K39">
+        <v>0.10721125300000001</v>
+      </c>
+      <c r="L39">
+        <v>2.0010185859999998</v>
+      </c>
+      <c r="M39">
+        <v>88</v>
+      </c>
+      <c r="N39">
+        <v>4.8471829000000001E-2</v>
       </c>
       <c r="O39" t="s">
         <v>103</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="Q39" t="s">
         <v>42</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S39" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="T39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39" t="s">
         <v>42</v>
       </c>
       <c r="V39" t="s">
@@ -4937,10 +4929,10 @@
         <v>45</v>
       </c>
       <c r="X39" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="Y39" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="Z39" t="s">
         <v>38</v>
@@ -4955,7 +4947,7 @@
         <v>38</v>
       </c>
       <c r="AD39">
-        <v>0.13600000000000001</v>
+        <v>0.21490000000000001</v>
       </c>
       <c r="AE39" t="s">
         <v>38</v>
@@ -4966,11 +4958,17 @@
       <c r="AG39" t="s">
         <v>39</v>
       </c>
-      <c r="AI39" t="s">
-        <v>39</v>
+      <c r="AH39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI39">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36">
       <c r="A40">
         <v>129</v>
       </c>
@@ -5068,7 +5066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36">
       <c r="A41">
         <v>130</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36">
       <c r="A42">
         <v>131</v>
       </c>
@@ -5264,7 +5262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" hidden="1">
       <c r="A43">
         <v>96</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" hidden="1">
       <c r="A44">
         <v>97</v>
       </c>
@@ -5460,7 +5458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" hidden="1">
       <c r="A45">
         <v>98</v>
       </c>
@@ -5564,7 +5562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" hidden="1">
       <c r="A46">
         <v>99</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" hidden="1">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -5781,7 +5779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" hidden="1">
       <c r="A48">
         <v>102</v>
       </c>
@@ -5879,7 +5877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" hidden="1">
       <c r="A49">
         <v>103</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" hidden="1">
       <c r="A50">
         <v>100</v>
       </c>
@@ -6075,7 +6073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" hidden="1">
       <c r="A51">
         <v>46</v>
       </c>
@@ -6173,7 +6171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" hidden="1">
       <c r="A52">
         <v>55</v>
       </c>
@@ -6271,7 +6269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" hidden="1">
       <c r="A53">
         <v>61</v>
       </c>
@@ -6369,7 +6367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" hidden="1">
       <c r="A54">
         <v>101</v>
       </c>
@@ -6467,7 +6465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" hidden="1">
       <c r="A55">
         <v>79</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" hidden="1">
       <c r="A56">
         <v>80</v>
       </c>
@@ -6687,7 +6685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" hidden="1">
       <c r="A57">
         <v>79</v>
       </c>
@@ -6797,7 +6795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" hidden="1">
       <c r="A58">
         <v>37</v>
       </c>
@@ -6904,7 +6902,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" hidden="1">
       <c r="A59">
         <v>40</v>
       </c>
@@ -7011,7 +7009,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" hidden="1">
       <c r="A60">
         <v>32</v>
       </c>
@@ -7109,7 +7107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" hidden="1">
       <c r="A61">
         <v>33</v>
       </c>
@@ -7207,7 +7205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" hidden="1">
       <c r="A62">
         <v>34</v>
       </c>
@@ -7305,7 +7303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" hidden="1">
       <c r="A63">
         <v>35</v>
       </c>
@@ -7403,7 +7401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" hidden="1">
       <c r="A64">
         <v>38</v>
       </c>
@@ -7501,7 +7499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" hidden="1">
       <c r="A65">
         <v>41</v>
       </c>
@@ -7599,7 +7597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" hidden="1">
       <c r="A66">
         <v>42</v>
       </c>
@@ -7697,7 +7695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" hidden="1">
       <c r="A67">
         <v>43</v>
       </c>
@@ -7795,7 +7793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" hidden="1">
       <c r="A68">
         <v>44</v>
       </c>
@@ -7893,7 +7891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" hidden="1">
       <c r="A69">
         <v>45</v>
       </c>
@@ -7991,7 +7989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" hidden="1">
       <c r="A70">
         <v>47</v>
       </c>
@@ -8089,7 +8087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" hidden="1">
       <c r="A71">
         <v>50</v>
       </c>
@@ -8187,7 +8185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" hidden="1">
       <c r="A72">
         <v>51</v>
       </c>
@@ -8285,7 +8283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" hidden="1">
       <c r="A73">
         <v>52</v>
       </c>
@@ -8383,7 +8381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" hidden="1">
       <c r="A74">
         <v>53</v>
       </c>
@@ -8481,7 +8479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" hidden="1">
       <c r="A75">
         <v>54</v>
       </c>
@@ -8579,7 +8577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" hidden="1">
       <c r="A76">
         <v>56</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" hidden="1">
       <c r="A77">
         <v>59</v>
       </c>
@@ -8775,7 +8773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" hidden="1">
       <c r="A78">
         <v>60</v>
       </c>
@@ -8873,7 +8871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" hidden="1">
       <c r="A79">
         <v>62</v>
       </c>
@@ -8971,7 +8969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" hidden="1">
       <c r="A80">
         <v>22</v>
       </c>
@@ -9075,7 +9073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" hidden="1">
       <c r="A81">
         <v>23</v>
       </c>
@@ -9173,7 +9171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" hidden="1">
       <c r="A82">
         <v>19</v>
       </c>
@@ -9271,7 +9269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" hidden="1">
       <c r="A83">
         <v>20</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" hidden="1">
       <c r="A84">
         <v>21</v>
       </c>
@@ -9467,7 +9465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" hidden="1">
       <c r="A85">
         <v>18</v>
       </c>
@@ -9567,14 +9565,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ85">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Carnagey, N. L., &amp; Anderson, C.A. (2005). The effects of reward and punishment in violent video games on aggressive affect, cognition, and behavior. Psychological Science, 16, 882-889."/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="23">
       <filters>
         <filter val="Exp"/>
         <filter val="Nonexp"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:AJ85">
-      <sortCondition descending="1" ref="O1:O85"/>
+    <sortState ref="A34:AJ42">
+      <sortCondition ref="R1:R85"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
